--- a/Isochrone/Excel Data/freeclinics.xlsx
+++ b/Isochrone/Excel Data/freeclinics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Downloads\Services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Desktop\WytheFinalDash\isochrones\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5679E615-1FF6-4C1E-91E0-67F10B41B259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983D711-FEF1-4F58-9B2A-C1A66A2A3818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1098" yWindow="1098" windowWidth="17328" windowHeight="10620" xr2:uid="{06D03150-58D8-49CF-A222-E6898F9F625A}"/>
+    <workbookView xWindow="2742" yWindow="1740" windowWidth="17328" windowHeight="10620" xr2:uid="{06D03150-58D8-49CF-A222-E6898F9F625A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -559,7 +559,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>78.010910030000005</v>
+        <v>-78.010910030000005</v>
       </c>
       <c r="H2">
         <v>38.452148440000002</v>

--- a/Isochrone/Excel Data/freeclinics.xlsx
+++ b/Isochrone/Excel Data/freeclinics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Desktop\WytheFinalDash\isochrones\Services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Desktop\Isochrones\isochrones\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983D711-FEF1-4F58-9B2A-C1A66A2A3818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4926B258-AB06-44CB-B153-7BA6C8DE70F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2742" yWindow="1740" windowWidth="17328" windowHeight="10620" xr2:uid="{06D03150-58D8-49CF-A222-E6898F9F625A}"/>
   </bookViews>
